--- a/EDA/microBoSL BOM Rev 0.2.3.xlsx
+++ b/EDA/microBoSL BOM Rev 0.2.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.monash.edu\home\User070\scat0009\Documents\Repositories\microBoSL\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87384117-67E4-4135-BE8E-FDCA704A81B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFE494-25E5-43E3-B487-987DABA5ADC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
